--- a/ShinyAppV2/rowApp_Spreadsheets/quadSeatRacing.xlsx
+++ b/ShinyAppV2/rowApp_Spreadsheets/quadSeatRacing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.anderson\Documents\GitHub\rowApp\ShinyAppV2\rowApp_Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518132A9-5095-4A12-BBDC-432035C714CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2829BFA3-D251-4807-AA92-948A158DBDDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{EFFC8592-2AB8-4052-91CA-991F1D915C0E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Please Enter Athletes in Pre-empted Rank Order:</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Quad Seat Racing</t>
+  </si>
+  <si>
+    <t>Run 8:</t>
   </si>
 </sst>
 </file>
@@ -357,12 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -371,20 +368,8 @@
     <xf numFmtId="47" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -393,29 +378,35 @@
     <xf numFmtId="20" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -424,12 +415,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -449,6 +434,24 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -463,10 +466,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F88542D4-DDC7-4229-B813-D8B8F2E071AE}" name="Table1" displayName="Table1" ref="A4:A12" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F88542D4-DDC7-4229-B813-D8B8F2E071AE}" name="Table1" displayName="Table1" ref="A4:A12" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A4:A12" xr:uid="{D0279391-A26A-4507-B845-780CC7CDA12A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7E13AF4C-9881-4D5E-A218-C9A7D078F5C9}" name="Athlete Names" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7E13AF4C-9881-4D5E-A218-C9A7D078F5C9}" name="Athlete Names" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -479,8 +482,8 @@
     <tableColumn id="1" xr3:uid="{EF6D5B6A-8269-4192-A198-DDBA44B25934}" name="Athlete">
       <calculatedColumnFormula>A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F521730D-82D3-49FB-91E6-62BD213EE1D2}" name="Difference" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{60C10BA7-C07F-44A3-88EE-2CD150EBED6B}" name="Rank" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{F521730D-82D3-49FB-91E6-62BD213EE1D2}" name="Difference" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{60C10BA7-C07F-44A3-88EE-2CD150EBED6B}" name="Rank" dataDxfId="6">
       <calculatedColumnFormula>RANK(Table2[Difference],Table2[Difference])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -489,24 +492,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B6780FB-58CE-4191-9305-5084546BB470}" name="Table3" displayName="Table3" ref="B4:B6" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B6780FB-58CE-4191-9305-5084546BB470}" name="Table3" displayName="Table3" ref="B4:B6" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="B4:B6" xr:uid="{BEBAC210-7CB0-42E8-8CBB-8C89B0981C43}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B6C9A85B-B838-4229-9E32-7807796AAA76}" name="Boats" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B6C9A85B-B838-4229-9E32-7807796AAA76}" name="Boats" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6956BBCB-5AE7-4C63-9307-62E991515BE0}" name="Table4" displayName="Table4" ref="L4:P11" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6956BBCB-5AE7-4C63-9307-62E991515BE0}" name="Table4" displayName="Table4" ref="L4:P11" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="L4:P11" xr:uid="{F69DE124-3906-40B0-AD5B-4B1A20B76471}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{019F1091-F13A-4D14-AAE6-BAFCF5C72F70}" name="Results"/>
-    <tableColumn id="2" xr3:uid="{B5B893D4-B8B5-4378-AD94-557A26EB8884}" name="Time" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B5B893D4-B8B5-4378-AD94-557A26EB8884}" name="Time" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{FF33F0B6-F8F8-4F01-BBBF-3FFC4C1080EF}" name="Column1"/>
-    <tableColumn id="4" xr3:uid="{03232CFB-2307-480A-AE20-6F54DA08E81B}" name="Time2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{57C560EE-01BF-412B-BCD7-6D69C8AD18B3}" name="Seconds" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{03232CFB-2307-480A-AE20-6F54DA08E81B}" name="Time2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{57C560EE-01BF-412B-BCD7-6D69C8AD18B3}" name="Seconds" dataDxfId="0">
       <calculatedColumnFormula>(O5-M5)*86400</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -814,7 +817,7 @@
   <dimension ref="A1:AE552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,14 +831,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -845,12 +848,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -917,7 +920,7 @@
       <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
@@ -928,7 +931,7 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -963,17 +966,17 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="str">
-        <f>A5</f>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11" t="str">
+        <f t="shared" ref="F5:F12" si="0">A5</f>
         <v>Athlete 1</v>
       </c>
       <c r="G5" s="2">
@@ -986,7 +989,7 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="20"/>
       <c r="L5" t="str">
         <f>C15</f>
         <v>Athlete 1</v>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f>(O5-M5)*86400</f>
+        <f t="shared" ref="P5:P11" si="1">(O5-M5)*86400</f>
         <v>0</v>
       </c>
       <c r="Q5" s="4"/>
@@ -1024,17 +1027,17 @@
       <c r="AE5" s="4"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="str">
-        <f>A6</f>
+      <c r="E6" s="18"/>
+      <c r="F6" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 2</v>
       </c>
       <c r="G6" s="2">
@@ -1047,7 +1050,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="20"/>
       <c r="L6" t="str">
         <f>O15</f>
         <v>Athlete 2</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <f>(O6-M6)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="4"/>
@@ -1085,15 +1088,15 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="str">
-        <f>A7</f>
+      <c r="E7" s="18"/>
+      <c r="F7" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 3</v>
       </c>
       <c r="G7" s="2">
@@ -1106,7 +1109,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="20"/>
       <c r="L7" t="str">
         <f>F16</f>
         <v>Athlete 3</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <f>(O7-M7)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="4"/>
@@ -1144,15 +1147,15 @@
       <c r="AE7" s="4"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="str">
-        <f>A8</f>
+      <c r="E8" s="18"/>
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 4</v>
       </c>
       <c r="G8" s="2">
@@ -1165,7 +1168,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="20"/>
       <c r="L8" t="str">
         <f>R16</f>
         <v>Athlete 4</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f>(O8-M8)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8" s="4"/>
@@ -1203,15 +1206,15 @@
       <c r="AE8" s="4"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="str">
-        <f>A9</f>
+      <c r="E9" s="18"/>
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 5</v>
       </c>
       <c r="G9" s="2">
@@ -1224,7 +1227,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="20"/>
       <c r="L9" t="str">
         <f>I17</f>
         <v>Athlete 5</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f>(O9-M9)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="4"/>
@@ -1262,15 +1265,15 @@
       <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="str">
-        <f>A10</f>
+      <c r="E10" s="18"/>
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 6</v>
       </c>
       <c r="G10" s="2">
@@ -1283,7 +1286,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="20"/>
       <c r="L10" t="str">
         <f>U17</f>
         <v>Athlete 6</v>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f>(O10-M10)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="4"/>
@@ -1321,15 +1324,15 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="str">
-        <f>A11</f>
+      <c r="E11" s="18"/>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 7</v>
       </c>
       <c r="G11" s="2">
@@ -1342,7 +1345,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="20"/>
       <c r="L11" t="str">
         <f>L18</f>
         <v>Athlete 7</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <f>(O11-M11)*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="4"/>
@@ -1380,15 +1383,15 @@
       <c r="AE11" s="4"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="str">
-        <f>A12</f>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>Athlete 8</v>
       </c>
       <c r="G12" s="2">
@@ -1457,10 +1460,10 @@
       <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="str">
@@ -1471,7 +1474,7 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="22" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="6" t="str">
@@ -1482,7 +1485,7 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="6" t="str">
@@ -1493,8 +1496,8 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>12</v>
+      <c r="K14" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="6" t="str">
         <f>B5</f>
@@ -1504,8 +1507,8 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>13</v>
+      <c r="N14" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="O14" s="6" t="str">
         <f>B5</f>
@@ -1515,8 +1518,8 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>14</v>
+      <c r="Q14" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="R14" s="6" t="str">
         <f>B5</f>
@@ -1526,8 +1529,8 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>15</v>
+      <c r="T14" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="U14" s="6" t="str">
         <f>B5</f>
@@ -1537,8 +1540,8 @@
         <f>B6</f>
         <v>Quad 2</v>
       </c>
-      <c r="W14" s="8" t="s">
-        <v>16</v>
+      <c r="W14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="X14" s="6" t="str">
         <f>B5</f>
@@ -1556,76 +1559,76 @@
       <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="str">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="7" t="str">
         <f>A5</f>
         <v>Athlete 1</v>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="7" t="str">
         <f>A6</f>
         <v>Athlete 2</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="str">
+      <c r="E15" s="22"/>
+      <c r="F15" s="7" t="str">
         <f>A6</f>
         <v>Athlete 2</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="7" t="str">
         <f>A5</f>
         <v>Athlete 1</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9" t="str">
+      <c r="H15" s="22"/>
+      <c r="I15" s="7" t="str">
         <f>F15</f>
         <v>Athlete 2</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="7" t="str">
         <f>G15</f>
         <v>Athlete 1</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9" t="str">
+      <c r="K15" s="22"/>
+      <c r="L15" s="7" t="str">
         <f>I15</f>
         <v>Athlete 2</v>
       </c>
-      <c r="M15" s="9" t="str">
+      <c r="M15" s="7" t="str">
         <f>J15</f>
         <v>Athlete 1</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9" t="str">
-        <f t="shared" ref="O15:P17" si="0">L15</f>
+      <c r="N15" s="22"/>
+      <c r="O15" s="7" t="str">
+        <f t="shared" ref="O15:P17" si="2">L15</f>
         <v>Athlete 2</v>
       </c>
-      <c r="P15" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="P15" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Athlete 1</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="str">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="7" t="str">
         <f>P16</f>
         <v>Athlete 3</v>
       </c>
-      <c r="S15" s="9" t="str">
+      <c r="S15" s="7" t="str">
         <f>P15</f>
         <v>Athlete 1</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9" t="str">
+      <c r="T15" s="22"/>
+      <c r="U15" s="7" t="str">
         <f>R15</f>
         <v>Athlete 3</v>
       </c>
-      <c r="V15" s="9" t="str">
+      <c r="V15" s="7" t="str">
         <f>S15</f>
         <v>Athlete 1</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="9" t="str">
+      <c r="W15" s="22"/>
+      <c r="X15" s="7" t="str">
         <f>U15</f>
         <v>Athlete 3</v>
       </c>
-      <c r="Y15" s="9" t="str">
+      <c r="Y15" s="7" t="str">
         <f>V15</f>
         <v>Athlete 1</v>
       </c>
@@ -1637,76 +1640,76 @@
       <c r="AE15" s="4"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="str">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="7" t="str">
         <f>A7</f>
         <v>Athlete 3</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="7" t="str">
         <f>A8</f>
         <v>Athlete 4</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="str">
-        <f t="shared" ref="F16:G18" si="1">C16</f>
+      <c r="E16" s="22"/>
+      <c r="F16" s="7" t="str">
+        <f t="shared" ref="F16:G18" si="3">C16</f>
         <v>Athlete 3</v>
       </c>
-      <c r="G16" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>Athlete 4</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9" t="str">
+      <c r="H16" s="22"/>
+      <c r="I16" s="7" t="str">
         <f>G16</f>
         <v>Athlete 4</v>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="7" t="str">
         <f>F16</f>
         <v>Athlete 3</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9" t="str">
+      <c r="K16" s="22"/>
+      <c r="L16" s="7" t="str">
         <f>I16</f>
         <v>Athlete 4</v>
       </c>
-      <c r="M16" s="9" t="str">
+      <c r="M16" s="7" t="str">
         <f>J16</f>
         <v>Athlete 3</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Athlete 4</v>
       </c>
-      <c r="P16" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="P16" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Athlete 3</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9" t="str">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="7" t="str">
         <f>O16</f>
         <v>Athlete 4</v>
       </c>
-      <c r="S16" s="9" t="str">
+      <c r="S16" s="7" t="str">
         <f>O15</f>
         <v>Athlete 2</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9" t="str">
+      <c r="T16" s="22"/>
+      <c r="U16" s="7" t="str">
         <f>S17</f>
         <v>Athlete 5</v>
       </c>
-      <c r="V16" s="9" t="str">
+      <c r="V16" s="7" t="str">
         <f>S16</f>
         <v>Athlete 2</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="9" t="str">
+      <c r="W16" s="22"/>
+      <c r="X16" s="7" t="str">
         <f>U16</f>
         <v>Athlete 5</v>
       </c>
-      <c r="Y16" s="9" t="str">
+      <c r="Y16" s="7" t="str">
         <f>V16</f>
         <v>Athlete 2</v>
       </c>
@@ -1718,76 +1721,76 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="str">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="7" t="str">
         <f>A9</f>
         <v>Athlete 5</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="7" t="str">
         <f>A10</f>
         <v>Athlete 6</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>Athlete 5</v>
       </c>
-      <c r="G17" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>Athlete 6</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9" t="str">
+      <c r="H17" s="22"/>
+      <c r="I17" s="7" t="str">
         <f>F17</f>
         <v>Athlete 5</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="7" t="str">
         <f>G17</f>
         <v>Athlete 6</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9" t="str">
+      <c r="K17" s="22"/>
+      <c r="L17" s="7" t="str">
         <f>J17</f>
         <v>Athlete 6</v>
       </c>
-      <c r="M17" s="9" t="str">
+      <c r="M17" s="7" t="str">
         <f>I17</f>
         <v>Athlete 5</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Athlete 6</v>
       </c>
-      <c r="P17" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="P17" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Athlete 5</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9" t="str">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="7" t="str">
         <f>O17</f>
         <v>Athlete 6</v>
       </c>
-      <c r="S17" s="9" t="str">
+      <c r="S17" s="7" t="str">
         <f>P17</f>
         <v>Athlete 5</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9" t="str">
+      <c r="T17" s="22"/>
+      <c r="U17" s="7" t="str">
         <f>R17</f>
         <v>Athlete 6</v>
       </c>
-      <c r="V17" s="9" t="str">
+      <c r="V17" s="7" t="str">
         <f>R16</f>
         <v>Athlete 4</v>
       </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="9" t="str">
+      <c r="W17" s="22"/>
+      <c r="X17" s="7" t="str">
         <f>V18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="Y17" s="9" t="str">
+      <c r="Y17" s="7" t="str">
         <f>V17</f>
         <v>Athlete 4</v>
       </c>
@@ -1799,76 +1802,76 @@
       <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="str">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="7" t="str">
         <f>A11</f>
         <v>Athlete 7</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="7" t="str">
         <f>A12</f>
         <v>Athlete 8</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>Athlete 7</v>
       </c>
-      <c r="G18" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>Athlete 8</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9" t="str">
+      <c r="H18" s="22"/>
+      <c r="I18" s="7" t="str">
         <f>F18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="7" t="str">
         <f>G18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9" t="str">
+      <c r="K18" s="22"/>
+      <c r="L18" s="7" t="str">
         <f>I18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="M18" s="9" t="str">
+      <c r="M18" s="7" t="str">
         <f>J18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9" t="str">
+      <c r="N18" s="22"/>
+      <c r="O18" s="7" t="str">
         <f>M18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="P18" s="9" t="str">
+      <c r="P18" s="7" t="str">
         <f>L18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9" t="str">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="7" t="str">
         <f>O18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="S18" s="9" t="str">
+      <c r="S18" s="7" t="str">
         <f>P18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9" t="str">
+      <c r="T18" s="22"/>
+      <c r="U18" s="7" t="str">
         <f>R18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="V18" s="9" t="str">
+      <c r="V18" s="7" t="str">
         <f>S18</f>
         <v>Athlete 7</v>
       </c>
-      <c r="W18" s="8"/>
-      <c r="X18" s="9" t="str">
+      <c r="W18" s="22"/>
+      <c r="X18" s="7" t="str">
         <f>U18</f>
         <v>Athlete 8</v>
       </c>
-      <c r="Y18" s="9" t="str">
+      <c r="Y18" s="7" t="str">
         <f>U17</f>
         <v>Athlete 6</v>
       </c>
@@ -1883,60 +1886,60 @@
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12">
+      <c r="B19" s="22"/>
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12">
+      <c r="E19" s="22"/>
+      <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="12">
+      <c r="H19" s="22"/>
+      <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>0</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="12">
+      <c r="K19" s="22"/>
+      <c r="L19" s="10">
         <v>0</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <v>0</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="12">
+      <c r="N19" s="22"/>
+      <c r="O19" s="10">
         <v>0</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="10">
         <v>0</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="12">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="10">
         <v>0</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="10">
         <v>0</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="12">
+      <c r="T19" s="22"/>
+      <c r="U19" s="10">
         <v>0</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="10">
         <v>0</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="12">
+      <c r="W19" s="22"/>
+      <c r="X19" s="10">
         <v>0</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="10">
         <v>0</v>
       </c>
       <c r="Z19" s="4"/>
@@ -1950,60 +1953,60 @@
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12">
+      <c r="B20" s="22"/>
+      <c r="C20" s="10">
         <v>0</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12">
+      <c r="E20" s="22"/>
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>0</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="12">
+      <c r="H20" s="22"/>
+      <c r="I20" s="10">
         <v>0</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>0</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="12">
+      <c r="K20" s="22"/>
+      <c r="L20" s="10">
         <v>0</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="10">
         <v>0</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="12">
+      <c r="N20" s="22"/>
+      <c r="O20" s="10">
         <v>0</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="10">
         <v>0</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="12">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="10">
         <v>0</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="10">
         <v>0</v>
       </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="12">
+      <c r="T20" s="22"/>
+      <c r="U20" s="10">
         <v>0</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="10">
         <v>0</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="12">
+      <c r="W20" s="22"/>
+      <c r="X20" s="10">
         <v>0</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="10">
         <v>0</v>
       </c>
       <c r="Z20" s="4"/>
@@ -2017,76 +2020,76 @@
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10">
+      <c r="B21" s="22"/>
+      <c r="C21" s="8">
         <f>C20-C19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <f>D20-D19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10">
-        <f t="shared" ref="F21:Y21" si="2">F20-F19</f>
+      <c r="E21" s="22"/>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:Y21" si="4">F20-F19</f>
         <v>0</v>
       </c>
-      <c r="G21" s="10">
-        <f t="shared" si="2"/>
+      <c r="G21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10">
-        <f t="shared" si="2"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" si="2"/>
+      <c r="J21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="10">
-        <f t="shared" si="2"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" si="2"/>
+      <c r="M21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10">
-        <f t="shared" si="2"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="2"/>
+      <c r="P21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="10">
-        <f t="shared" si="2"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="10">
-        <f t="shared" si="2"/>
+      <c r="S21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="10">
-        <f t="shared" si="2"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V21" s="10">
-        <f t="shared" si="2"/>
+      <c r="V21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="10">
-        <f t="shared" si="2"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="10">
-        <f t="shared" si="2"/>
+      <c r="Y21" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z21" s="4"/>
@@ -2163,12 +2166,12 @@
       <c r="AE23" s="4"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2198,12 +2201,12 @@
       <c r="AE24" s="4"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2233,12 +2236,12 @@
       <c r="AE25" s="4"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2268,12 +2271,12 @@
       <c r="AE26" s="4"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2303,12 +2306,12 @@
       <c r="AE27" s="4"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2338,12 +2341,12 @@
       <c r="AE28" s="4"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -19632,8 +19635,12 @@
       <c r="AE552" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qW93PHbunkiFtYAcCJvWUWeJkGzV0YIkqbvy0UwFKNg4u16AYfIJ5Q6pxpThARqgn6c8f/7RoIJrV7K0eXbpmQ==" saltValue="Xomvyb3NJRqLbsIjTdXaWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="Q14:Q21"/>
+    <mergeCell ref="T14:T21"/>
+    <mergeCell ref="W14:W21"/>
     <mergeCell ref="H1:M2"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A28:D28"/>
@@ -19649,10 +19656,6 @@
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="H14:H21"/>
     <mergeCell ref="K14:K21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="Q14:Q21"/>
-    <mergeCell ref="T14:T21"/>
-    <mergeCell ref="W14:W21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
